--- a/notebooks/output/phx_vil_rent.xlsx
+++ b/notebooks/output/phx_vil_rent.xlsx
@@ -5,64 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/notebooks/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51640528-2671-F34C-8CFF-57A7A73B6780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD2583-2E04-7A49-BF13-D314C8C541CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27920" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25880" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId1"/>
-    <sheet name="bar charts" sheetId="2" r:id="rId2"/>
+    <sheet name="Village_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Village_Charts" sheetId="2" r:id="rId2"/>
+    <sheet name="Phx_data" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'bar charts'!$A$2:$J$17</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'bar charts'!$A$23:$A$52</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'bar charts'!$C$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'bar charts'!$C$22</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'bar charts'!$C$23:$C$52</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'bar charts'!$D$22</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'bar charts'!$D$23:$D$52</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'bar charts'!$G$22</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'bar charts'!$G$23:$G$52</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'bar charts'!$H$22</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'bar charts'!$H$23:$H$52</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'bar charts'!$A$23:$A$52</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'bar charts'!$C$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'bar charts'!$C$23:$C$52</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'bar charts'!$C$23:$C$52</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'bar charts'!$D$22</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'bar charts'!$D$23:$D$52</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'bar charts'!$G$22</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'bar charts'!$G$23:$G$52</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'bar charts'!$H$22</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'bar charts'!$H$23:$H$52</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'bar charts'!$A$23:$A$52</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'bar charts'!$C$22</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'bar charts'!$C$23:$C$52</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'bar charts'!$D$22</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'bar charts'!$D$22</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'bar charts'!$D$23:$D$52</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'bar charts'!$G$22</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'bar charts'!$G$23:$G$52</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'bar charts'!$H$22</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'bar charts'!$H$23:$H$52</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'bar charts'!$A$23:$A$52</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'bar charts'!$C$22</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'bar charts'!$C$23:$C$52</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'bar charts'!$D$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'bar charts'!$D$23:$D$52</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'bar charts'!$D$23:$D$52</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'bar charts'!$G$22</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'bar charts'!$G$23:$G$52</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'bar charts'!$H$22</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'bar charts'!$H$23:$H$52</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'bar charts'!$G$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'bar charts'!$G$23:$G$52</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'bar charts'!$H$22</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'bar charts'!$H$23:$H$52</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'bar charts'!$A$23:$A$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Village_Charts!$A$2:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -305,6 +261,21 @@
   <si>
     <t>Ch</t>
   </si>
+  <si>
+    <t>30-50%</t>
+  </si>
+  <si>
+    <t>50%+</t>
+  </si>
+  <si>
+    <t>0455000</t>
+  </si>
+  <si>
+    <t>GEO_ID</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
@@ -312,8 +283,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="\+0%;[Red]\-0%;0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\+0%;[Red]\-0%;0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -610,7 +581,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -627,28 +598,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
@@ -671,20 +630,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -826,6 +838,518 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30-50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Village_data!$A$19:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Laveen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Deer Valley</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maryvale</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>North Mountain</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Paradise Valley</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Encanto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camelback East</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>South Mountain</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alhambra</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ahwatukee Foothills</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Central City</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Estrella</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Desert View</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rio Vista</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>North Gateway</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Village_data!$AC$19:$AC$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.2601820795400096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27278451125452541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2752065293122325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2658392988559577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22754491017964071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2384702663018087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25458335713061853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2713441554031108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25515234785419866</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26219081272084804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25403779506963969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24199244915357448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1961512491559757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19617590822179731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D034-7346-ACA1-AA1EE172966E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>&gt;50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Village_data!$A$19:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Laveen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Deer Valley</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maryvale</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>North Mountain</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Paradise Valley</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Encanto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camelback East</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>South Mountain</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Alhambra</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ahwatukee Foothills</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Central City</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Estrella</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Desert View</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rio Vista</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>North Gateway</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Village_data!$AD$19:$AD$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.25347388596070913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20706752715252635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23496234365150459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25480029437345286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22997483294281004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2337983047453781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18447655491461534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2271955443863343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27729734098440151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18758202927814235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23925979206172759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18048958713920352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18568534773801484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42424242424242425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1101338432122371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D034-7346-ACA1-AA1EE172966E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="655716047"/>
+        <c:axId val="655718191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655716047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655718191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655718191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655716047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -834,7 +1358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'bar charts'!$C$22</c:f>
+              <c:f>Village_Charts!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -858,7 +1382,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'bar charts'!$A$23:$A$52</c:f>
+              <c:f>Village_Charts!$A$23:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -911,7 +1435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bar charts'!$C$23:$C$52</c:f>
+              <c:f>Village_Charts!$C$23:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -974,7 +1498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'bar charts'!$D$22</c:f>
+              <c:f>Village_Charts!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -998,7 +1522,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'bar charts'!$A$23:$A$52</c:f>
+              <c:f>Village_Charts!$A$23:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1051,7 +1575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bar charts'!$D$23:$D$52</c:f>
+              <c:f>Village_Charts!$D$23:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1114,7 +1638,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'bar charts'!$G$22</c:f>
+              <c:f>Village_Charts!$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1135,7 +1659,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'bar charts'!$A$23:$A$52</c:f>
+              <c:f>Village_Charts!$A$23:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1188,7 +1712,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bar charts'!$G$23:$G$52</c:f>
+              <c:f>Village_Charts!$G$23:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1251,7 +1775,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'bar charts'!$H$22</c:f>
+              <c:f>Village_Charts!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,7 +1796,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'bar charts'!$A$23:$A$52</c:f>
+              <c:f>Village_Charts!$A$23:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -1325,7 +1849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bar charts'!$H$23:$H$52</c:f>
+              <c:f>Village_Charts!$H$23:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1587,6 +2111,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2131,7 +2695,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A683CF69-74A7-7B56-1327-423D1F49D798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2493,13 +3603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX1" activeCellId="4" sqref="W1:W16 AI1:AJ16 AN1:AO16 AS1:AT16 AX1:AY16"/>
+      <selection pane="bottomRight" activeCell="AY1" sqref="AU1:AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4988,38 +6098,542 @@
         <v>3.4342688330871493E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AC18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC19" s="39">
+        <f>AC2/SUM(AC2,T2,Q2)</f>
+        <v>0.2601820795400096</v>
+      </c>
+      <c r="AD19" s="39">
+        <f>Q2/SUM(Q2,T2,AC2)</f>
+        <v>0.25347388596070913</v>
+      </c>
+      <c r="AI19" s="39">
+        <f>H2/SUM(H2,K2,N2)</f>
+        <v>0.40094078583287218</v>
+      </c>
+      <c r="AJ19" s="39">
+        <f>T2/SUM(T2,AC2,Q2)</f>
+        <v>0.48634403449928126</v>
+      </c>
+      <c r="AK19" s="33">
+        <f>AJ19-AI19</f>
+        <v>8.5403248666409082E-2</v>
+      </c>
+      <c r="AM19" s="33">
+        <f>1-AI19</f>
+        <v>0.59905921416712782</v>
+      </c>
+      <c r="AN19" s="33">
+        <f>1-AJ19</f>
+        <v>0.51365596550071868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="39">
+        <f t="shared" ref="AC20:AC32" si="0">AC3/SUM(AC3,T3,Q3)</f>
+        <v>0.27278451125452541</v>
+      </c>
+      <c r="AD20" s="39">
+        <f t="shared" ref="AD20:AD32" si="1">Q3/SUM(Q3,T3,AC3)</f>
+        <v>0.20706752715252635</v>
+      </c>
+      <c r="AI20" s="39">
+        <f t="shared" ref="AI20:AI33" si="2">H3/SUM(H3,K3,N3)</f>
+        <v>0.52838683535185271</v>
+      </c>
+      <c r="AJ20" s="39">
+        <f t="shared" ref="AJ20:AJ33" si="3">T3/SUM(T3,AC3,Q3)</f>
+        <v>0.52014796159294818</v>
+      </c>
+      <c r="AK20" s="33">
+        <f t="shared" ref="AK20:AK33" si="4">AJ20-AI20</f>
+        <v>-8.2388737589045302E-3</v>
+      </c>
+      <c r="AM20" s="33">
+        <f>1-AI20</f>
+        <v>0.47161316464814729</v>
+      </c>
+      <c r="AN20" s="33">
+        <f>1-AJ20</f>
+        <v>0.47985203840705182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC21" s="39">
+        <f t="shared" si="0"/>
+        <v>0.2752065293122325</v>
+      </c>
+      <c r="AD21" s="39">
+        <f t="shared" si="1"/>
+        <v>0.23496234365150459</v>
+      </c>
+      <c r="AI21" s="39">
+        <f t="shared" si="2"/>
+        <v>0.3826124075128059</v>
+      </c>
+      <c r="AJ21" s="39">
+        <f t="shared" si="3"/>
+        <v>0.48983112703626291</v>
+      </c>
+      <c r="AK21" s="33">
+        <f t="shared" si="4"/>
+        <v>0.10721871952345702</v>
+      </c>
+      <c r="AM21" s="33">
+        <f>1-AI21</f>
+        <v>0.6173875924871941</v>
+      </c>
+      <c r="AN21" s="33">
+        <f>1-AJ21</f>
+        <v>0.51016887296373703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22" s="39">
+        <f t="shared" si="0"/>
+        <v>0.2658392988559577</v>
+      </c>
+      <c r="AD22" s="39">
+        <f t="shared" si="1"/>
+        <v>0.25480029437345286</v>
+      </c>
+      <c r="AI22" s="39">
+        <f t="shared" si="2"/>
+        <v>0.48121484814398202</v>
+      </c>
+      <c r="AJ22" s="39">
+        <f t="shared" si="3"/>
+        <v>0.47936040677058944</v>
+      </c>
+      <c r="AK22" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.8544413733925791E-3</v>
+      </c>
+      <c r="AM22" s="33">
+        <f>1-AI22</f>
+        <v>0.51878515185601803</v>
+      </c>
+      <c r="AN22" s="33">
+        <f>1-AJ22</f>
+        <v>0.52063959322941056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC23" s="39">
+        <f t="shared" si="0"/>
+        <v>0.22754491017964071</v>
+      </c>
+      <c r="AD23" s="39">
+        <f t="shared" si="1"/>
+        <v>0.22997483294281004</v>
+      </c>
+      <c r="AI23" s="39">
+        <f t="shared" si="2"/>
+        <v>0.53132105755940973</v>
+      </c>
+      <c r="AJ23" s="39">
+        <f t="shared" si="3"/>
+        <v>0.54248025687754919</v>
+      </c>
+      <c r="AK23" s="33">
+        <f t="shared" si="4"/>
+        <v>1.1159199318139468E-2</v>
+      </c>
+      <c r="AM23" s="33">
+        <f>1-AI23</f>
+        <v>0.46867894244059027</v>
+      </c>
+      <c r="AN23" s="33">
+        <f>1-AJ23</f>
+        <v>0.45751974312245081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC24" s="39">
+        <f t="shared" si="0"/>
+        <v>0.2384702663018087</v>
+      </c>
+      <c r="AD24" s="39">
+        <f t="shared" si="1"/>
+        <v>0.2337983047453781</v>
+      </c>
+      <c r="AI24" s="39">
+        <f t="shared" si="2"/>
+        <v>0.47680351675955729</v>
+      </c>
+      <c r="AJ24" s="39">
+        <f t="shared" si="3"/>
+        <v>0.52773142895281322</v>
+      </c>
+      <c r="AK24" s="33">
+        <f t="shared" si="4"/>
+        <v>5.0927912193255931E-2</v>
+      </c>
+      <c r="AM24" s="33">
+        <f>1-AI24</f>
+        <v>0.52319648324044277</v>
+      </c>
+      <c r="AN24" s="33">
+        <f>1-AJ24</f>
+        <v>0.47226857104718678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC25" s="39">
+        <f t="shared" si="0"/>
+        <v>0.25458335713061853</v>
+      </c>
+      <c r="AD25" s="39">
+        <f t="shared" si="1"/>
+        <v>0.18447655491461534</v>
+      </c>
+      <c r="AI25" s="39">
+        <f t="shared" si="2"/>
+        <v>0.5041663820777269</v>
+      </c>
+      <c r="AJ25" s="39">
+        <f t="shared" si="3"/>
+        <v>0.56094008795476613</v>
+      </c>
+      <c r="AK25" s="33">
+        <f t="shared" si="4"/>
+        <v>5.6773705877039227E-2</v>
+      </c>
+      <c r="AM25" s="33">
+        <f>1-AI25</f>
+        <v>0.4958336179222731</v>
+      </c>
+      <c r="AN25" s="33">
+        <f>1-AJ25</f>
+        <v>0.43905991204523387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" s="39">
+        <f t="shared" si="0"/>
+        <v>0.2713441554031108</v>
+      </c>
+      <c r="AD26" s="39">
+        <f t="shared" si="1"/>
+        <v>0.2271955443863343</v>
+      </c>
+      <c r="AI26" s="39">
+        <f t="shared" si="2"/>
+        <v>0.43429436126154825</v>
+      </c>
+      <c r="AJ26" s="39">
+        <f t="shared" si="3"/>
+        <v>0.50146030021055488</v>
+      </c>
+      <c r="AK26" s="33">
+        <f t="shared" si="4"/>
+        <v>6.7165938949006632E-2</v>
+      </c>
+      <c r="AM26" s="33">
+        <f>1-AI26</f>
+        <v>0.56570563873845181</v>
+      </c>
+      <c r="AN26" s="33">
+        <f>1-AJ26</f>
+        <v>0.49853969978944512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC27" s="39">
+        <f t="shared" si="0"/>
+        <v>0.25515234785419866</v>
+      </c>
+      <c r="AD27" s="39">
+        <f t="shared" si="1"/>
+        <v>0.27729734098440151</v>
+      </c>
+      <c r="AI27" s="39">
+        <f t="shared" si="2"/>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="AJ27" s="39">
+        <f t="shared" si="3"/>
+        <v>0.46755031116139983</v>
+      </c>
+      <c r="AK27" s="33">
+        <f t="shared" si="4"/>
+        <v>8.1186674797763481E-2</v>
+      </c>
+      <c r="AM27" s="33">
+        <f>1-AI27</f>
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="AN27" s="33">
+        <f>1-AJ27</f>
+        <v>0.53244968883860011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" s="39">
+        <f t="shared" si="0"/>
+        <v>0.26219081272084804</v>
+      </c>
+      <c r="AD28" s="39">
+        <f t="shared" si="1"/>
+        <v>0.18758202927814235</v>
+      </c>
+      <c r="AI28" s="39">
+        <f t="shared" si="2"/>
+        <v>0.6371117860291956</v>
+      </c>
+      <c r="AJ28" s="39">
+        <f t="shared" si="3"/>
+        <v>0.55022715800100963</v>
+      </c>
+      <c r="AK28" s="33">
+        <f t="shared" si="4"/>
+        <v>-8.6884628028185973E-2</v>
+      </c>
+      <c r="AM28" s="33">
+        <f>1-AI28</f>
+        <v>0.3628882139708044</v>
+      </c>
+      <c r="AN28" s="33">
+        <f>1-AJ28</f>
+        <v>0.44977284199899037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC29" s="39">
+        <f t="shared" si="0"/>
+        <v>0.25403779506963969</v>
+      </c>
+      <c r="AD29" s="39">
+        <f t="shared" si="1"/>
+        <v>0.23925979206172759</v>
+      </c>
+      <c r="AI29" s="39">
+        <f t="shared" si="2"/>
+        <v>0.44381554852671884</v>
+      </c>
+      <c r="AJ29" s="39">
+        <f t="shared" si="3"/>
+        <v>0.50670241286863271</v>
+      </c>
+      <c r="AK29" s="33">
+        <f t="shared" si="4"/>
+        <v>6.2886864341913873E-2</v>
+      </c>
+      <c r="AM29" s="33">
+        <f>1-AI29</f>
+        <v>0.55618445147328122</v>
+      </c>
+      <c r="AN29" s="33">
+        <f>1-AJ29</f>
+        <v>0.49329758713136729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC30" s="39">
+        <f t="shared" si="0"/>
+        <v>0.24199244915357448</v>
+      </c>
+      <c r="AD30" s="39">
+        <f t="shared" si="1"/>
+        <v>0.18048958713920352</v>
+      </c>
+      <c r="AI30" s="39">
+        <f t="shared" si="2"/>
+        <v>0.36180973209404044</v>
+      </c>
+      <c r="AJ30" s="39">
+        <f t="shared" si="3"/>
+        <v>0.57751796370722197</v>
+      </c>
+      <c r="AK30" s="33">
+        <f t="shared" si="4"/>
+        <v>0.21570823161318153</v>
+      </c>
+      <c r="AM30" s="33">
+        <f>1-AI30</f>
+        <v>0.63819026790595956</v>
+      </c>
+      <c r="AN30" s="33">
+        <f>1-AJ30</f>
+        <v>0.42248203629277803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="39">
+        <f t="shared" si="0"/>
+        <v>0.1961512491559757</v>
+      </c>
+      <c r="AD31" s="39">
+        <f t="shared" si="1"/>
+        <v>0.18568534773801484</v>
+      </c>
+      <c r="AI31" s="39">
+        <f t="shared" si="2"/>
+        <v>0.60172672672672678</v>
+      </c>
+      <c r="AJ31" s="39">
+        <f t="shared" si="3"/>
+        <v>0.61816340310600948</v>
+      </c>
+      <c r="AK31" s="33">
+        <f t="shared" si="4"/>
+        <v>1.64366763792827E-2</v>
+      </c>
+      <c r="AM31" s="33">
+        <f>1-AI31</f>
+        <v>0.39827327327327322</v>
+      </c>
+      <c r="AN31" s="33">
+        <f>1-AJ31</f>
+        <v>0.38183659689399052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC32" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="39">
+        <f t="shared" si="1"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="AI32" s="39">
+        <f t="shared" si="2"/>
+        <v>0.78738317757009346</v>
+      </c>
+      <c r="AJ32" s="39">
+        <f t="shared" si="3"/>
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="AK32" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.21162560181251766</v>
+      </c>
+      <c r="AM32" s="33">
+        <f>1-AI32</f>
+        <v>0.21261682242990654</v>
+      </c>
+      <c r="AN32" s="33">
+        <f>1-AJ32</f>
+        <v>0.4242424242424242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC33" s="39">
+        <f>AC16/SUM(AC16,T16,Q16)</f>
+        <v>0.19617590822179731</v>
+      </c>
+      <c r="AD33" s="39">
+        <f>Q16/SUM(Q16,T16,AC16)</f>
+        <v>0.1101338432122371</v>
+      </c>
+      <c r="AI33" s="39">
+        <f t="shared" si="2"/>
+        <v>0.58231954582319545</v>
+      </c>
+      <c r="AJ33" s="39">
+        <f t="shared" si="3"/>
+        <v>0.69369024856596562</v>
+      </c>
+      <c r="AK33" s="33">
+        <f t="shared" si="4"/>
+        <v>0.11137070274277017</v>
+      </c>
+      <c r="AM33" s="33">
+        <f>1-AI33</f>
+        <v>0.41768045417680455</v>
+      </c>
+      <c r="AN33" s="33">
+        <f>1-AJ33</f>
+        <v>0.30630975143403438</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH16">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G16 J2:J16 M2:M16 P2:P16 S2:S16 V2:V16 Y2:Y16 AB2:AB16 AE2:AE16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AM16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AR16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2:AW16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5027,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CCD39E-F566-7B46-9507-BCDE92AF5196}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
@@ -5047,37 +6661,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="17">
+      <c r="J1" s="38"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="35">
         <v>2013</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="18">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="36">
         <v>2021</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="W1" s="36" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="37"/>
+      <c r="W1" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5109,34 +6723,34 @@
       <c r="J2" s="1">
         <v>2021</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="27" t="s">
         <v>69</v>
       </c>
       <c r="W2">
@@ -5180,13 +6794,13 @@
       <c r="J3" s="13">
         <v>3.6988147292577621E-2</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="30">
         <v>36363</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="16">
         <v>0.47745795601552388</v>
       </c>
       <c r="O3" s="12">
@@ -5195,7 +6809,7 @@
       <c r="P3" s="12">
         <v>0.23350582147477361</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="17">
         <v>5.297542043984476E-2</v>
       </c>
       <c r="R3" s="12">
@@ -5207,18 +6821,18 @@
       <c r="T3" s="12">
         <v>0.17765310892940631</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="17">
         <v>3.6988147292577621E-2</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="33">
         <f>SUM(O3:P3)</f>
         <v>0.4695666235446313</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="33">
         <f>SUM(S3:T3)</f>
         <v>0.4228198993482386</v>
       </c>
-      <c r="Y3" s="38">
+      <c r="Y3" s="34">
         <f>X3-W3</f>
         <v>-4.6746724196392697E-2</v>
       </c>
@@ -5254,13 +6868,13 @@
       <c r="J4" s="13">
         <v>5.6822842719671869E-2</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="30">
         <v>31695</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="16">
         <v>0.45153572810751857</v>
       </c>
       <c r="O4" s="12">
@@ -5269,7 +6883,7 @@
       <c r="P4" s="12">
         <v>0.2386095767512226</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="17">
         <v>6.1675403722337541E-2</v>
       </c>
       <c r="R4" s="12">
@@ -5281,18 +6895,18 @@
       <c r="T4" s="12">
         <v>0.24032181732134411</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="17">
         <v>5.6822842719671869E-2</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="33">
         <f t="shared" ref="W4:W17" si="0">SUM(O4:P4)</f>
         <v>0.48678886817014388</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="33">
         <f t="shared" ref="X4:X17" si="1">SUM(S4:T4)</f>
         <v>0.49105537150970191</v>
       </c>
-      <c r="Y4" s="38">
+      <c r="Y4" s="34">
         <f t="shared" ref="Y4:Y17" si="2">X4-W4</f>
         <v>4.2665033395580254E-3</v>
       </c>
@@ -5328,13 +6942,13 @@
       <c r="J5" s="13">
         <v>4.8609576717906632E-2</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="30">
         <v>31681</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="16">
         <v>0.3555114857048422</v>
       </c>
       <c r="O5" s="12">
@@ -5343,7 +6957,7 @@
       <c r="P5" s="12">
         <v>0.31112212857378951</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="17">
         <v>7.0831267559081146E-2</v>
       </c>
       <c r="R5" s="12">
@@ -5355,18 +6969,18 @@
       <c r="T5" s="12">
         <v>0.22354092358195771</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="17">
         <v>4.8609576717906632E-2</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="33">
         <f t="shared" si="0"/>
         <v>0.57365724673607676</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="33">
         <f t="shared" si="1"/>
         <v>0.48536977999431841</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="34">
         <f t="shared" si="2"/>
         <v>-8.8287466741758358E-2</v>
       </c>
@@ -5402,13 +7016,13 @@
       <c r="J6" s="13">
         <v>4.2574033607113253E-2</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="30">
         <v>26542</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="16">
         <v>0.50551343900758094</v>
       </c>
       <c r="O6" s="12">
@@ -5417,7 +7031,7 @@
       <c r="P6" s="12">
         <v>0.19365954514128189</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="17">
         <v>4.3289110957960029E-2</v>
       </c>
       <c r="R6" s="12">
@@ -5429,18 +7043,18 @@
       <c r="T6" s="12">
         <v>0.19825182729259291</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="17">
         <v>4.2574033607113253E-2</v>
       </c>
-      <c r="W6" s="37">
+      <c r="W6" s="33">
         <f t="shared" si="0"/>
         <v>0.45119745003445899</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="33">
         <f t="shared" si="1"/>
         <v>0.45942280159746818</v>
       </c>
-      <c r="Y6" s="38">
+      <c r="Y6" s="34">
         <f t="shared" si="2"/>
         <v>8.2253515630091867E-3</v>
       </c>
@@ -5476,13 +7090,13 @@
       <c r="J7" s="13">
         <v>4.1150030998140109E-2</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="30">
         <v>25808</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="16">
         <v>0.35032225237449122</v>
       </c>
       <c r="O7" s="12">
@@ -5491,7 +7105,7 @@
       <c r="P7" s="12">
         <v>0.30317164179104478</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="17">
         <v>9.3283582089552244E-2</v>
       </c>
       <c r="R7" s="12">
@@ -5503,18 +7117,18 @@
       <c r="T7" s="12">
         <v>0.26588654680719159</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="17">
         <v>4.1150030998140109E-2</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="33">
         <f t="shared" si="0"/>
         <v>0.55639416553595655</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="33">
         <f t="shared" si="1"/>
         <v>0.51053936763794183</v>
       </c>
-      <c r="Y7" s="38">
+      <c r="Y7" s="34">
         <f t="shared" si="2"/>
         <v>-4.5854797898014721E-2</v>
       </c>
@@ -5550,13 +7164,13 @@
       <c r="J8" s="13">
         <v>4.3019682750602112E-2</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="30">
         <v>24082</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="16">
         <v>0.504615514905149</v>
       </c>
       <c r="O8" s="12">
@@ -5565,7 +7179,7 @@
       <c r="P8" s="12">
         <v>0.22040142276422761</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="17">
         <v>5.0262533875338751E-2</v>
       </c>
       <c r="R8" s="12">
@@ -5577,18 +7191,18 @@
       <c r="T8" s="12">
         <v>0.2200813885889876</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="17">
         <v>4.3019682750602112E-2</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="33">
         <f t="shared" si="0"/>
         <v>0.4451219512195122</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="33">
         <f t="shared" si="1"/>
         <v>0.4378373889211859</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Y8" s="34">
         <f t="shared" si="2"/>
         <v>-7.2845622983263025E-3</v>
       </c>
@@ -5624,13 +7238,13 @@
       <c r="J9" s="13">
         <v>6.4419429829927807E-2</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="30">
         <v>16346</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="16">
         <v>0.39005120702267743</v>
       </c>
       <c r="O9" s="12">
@@ -5639,7 +7253,7 @@
       <c r="P9" s="12">
         <v>0.26869056327724938</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="17">
         <v>0.1211411850768105</v>
       </c>
       <c r="R9" s="12">
@@ -5651,18 +7265,18 @@
       <c r="T9" s="12">
         <v>0.22384681267588399</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="17">
         <v>6.4419429829927807E-2</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="33">
         <f t="shared" si="0"/>
         <v>0.48880760790051198</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="33">
         <f t="shared" si="1"/>
         <v>0.46151963783188549</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Y9" s="34">
         <f t="shared" si="2"/>
         <v>-2.7287970068626488E-2</v>
       </c>
@@ -5698,13 +7312,13 @@
       <c r="J10" s="13">
         <v>6.2742399599649695E-2</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="30">
         <v>15986</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="16">
         <v>0.44524263304500811</v>
       </c>
       <c r="O10" s="12">
@@ -5713,7 +7327,7 @@
       <c r="P10" s="12">
         <v>0.24776425744025801</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="17">
         <v>6.6192640375311543E-2</v>
       </c>
       <c r="R10" s="12">
@@ -5725,18 +7339,18 @@
       <c r="T10" s="12">
         <v>0.21912923808332291</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="17">
         <v>6.2742399599649695E-2</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="33">
         <f t="shared" si="0"/>
         <v>0.48856472657968042</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="33">
         <f t="shared" si="1"/>
         <v>0.44263730764418863</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="34">
         <f t="shared" si="2"/>
         <v>-4.5927418935491793E-2</v>
       </c>
@@ -5772,13 +7386,13 @@
       <c r="J11" s="13">
         <v>6.1810998534378388E-2</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="30">
         <v>15693</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="16">
         <v>0.38632660290471132</v>
       </c>
       <c r="O11" s="12">
@@ -5787,7 +7401,7 @@
       <c r="P11" s="12">
         <v>0.25462274176408078</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="17">
         <v>0.1104498760184201</v>
       </c>
       <c r="R11" s="12">
@@ -5799,18 +7413,18 @@
       <c r="T11" s="12">
         <v>0.2131523609252533</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="17">
         <v>6.1810998534378388E-2</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="33">
         <f t="shared" si="0"/>
         <v>0.50322352107686852</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="33">
         <f t="shared" si="1"/>
         <v>0.46772446313643018</v>
       </c>
-      <c r="Y11" s="38">
+      <c r="Y11" s="34">
         <f t="shared" si="2"/>
         <v>-3.5499057940438339E-2</v>
       </c>
@@ -5846,13 +7460,13 @@
       <c r="J12" s="13">
         <v>2.3175542406311641E-2</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="30">
         <v>10140</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="16">
         <v>0.61680736033387085</v>
       </c>
       <c r="O12" s="12">
@@ -5861,7 +7475,7 @@
       <c r="P12" s="12">
         <v>0.14236934458882669</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="17">
         <v>3.1869486863321632E-2</v>
       </c>
       <c r="R12" s="12">
@@ -5873,18 +7487,18 @@
       <c r="T12" s="12">
         <v>0.18323471400394481</v>
       </c>
-      <c r="U12" s="21">
+      <c r="U12" s="17">
         <v>2.3175542406311641E-2</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="33">
         <f t="shared" si="0"/>
         <v>0.35132315280280757</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X12" s="33">
         <f t="shared" si="1"/>
         <v>0.43934911242603553</v>
       </c>
-      <c r="Y12" s="38">
+      <c r="Y12" s="34">
         <f t="shared" si="2"/>
         <v>8.8025959623227956E-2</v>
       </c>
@@ -5920,13 +7534,13 @@
       <c r="J13" s="13">
         <v>4.6230688814031827E-2</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="30">
         <v>8609</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="16">
         <v>0.30261804047101859</v>
       </c>
       <c r="O13" s="12">
@@ -5935,7 +7549,7 @@
       <c r="P13" s="12">
         <v>0.26946381616554249</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="17">
         <v>0.16359894821081511</v>
       </c>
       <c r="R13" s="12">
@@ -5947,18 +7561,18 @@
       <c r="T13" s="12">
         <v>0.17214542920199791</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="17">
         <v>4.6230688814031827E-2</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="33">
         <f t="shared" si="0"/>
         <v>0.5337830113181663</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="33">
         <f t="shared" si="1"/>
         <v>0.4029504007434081</v>
       </c>
-      <c r="Y13" s="38">
+      <c r="Y13" s="34">
         <f t="shared" si="2"/>
         <v>-0.1308326105747582</v>
       </c>
@@ -5994,13 +7608,13 @@
       <c r="J14" s="13">
         <v>6.0279187817258877E-2</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="30">
         <v>6304</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="16">
         <v>0.56304882332279593</v>
       </c>
       <c r="O14" s="12">
@@ -6009,7 +7623,7 @@
       <c r="P14" s="12">
         <v>0.14611872146118721</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="17">
         <v>6.4278187565858805E-2</v>
       </c>
       <c r="R14" s="12">
@@ -6021,18 +7635,18 @@
       <c r="T14" s="12">
         <v>0.17449238578680201</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="17">
         <v>6.0279187817258877E-2</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="33">
         <f t="shared" si="0"/>
         <v>0.37267298911134528</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="33">
         <f t="shared" si="1"/>
         <v>0.35881979695431471</v>
       </c>
-      <c r="Y14" s="38">
+      <c r="Y14" s="34">
         <f t="shared" si="2"/>
         <v>-1.3853192157030569E-2</v>
       </c>
@@ -6068,13 +7682,13 @@
       <c r="J15" s="13">
         <v>2.5449451319168811E-2</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="30">
         <v>4283</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="16">
         <v>0.37675507020280807</v>
       </c>
       <c r="O15" s="12">
@@ -6083,7 +7697,7 @@
       <c r="P15" s="12">
         <v>0.29433177327093091</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="17">
         <v>6.032241289651586E-2</v>
       </c>
       <c r="R15" s="12">
@@ -6095,18 +7709,18 @@
       <c r="T15" s="12">
         <v>0.24702311463927151</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="17">
         <v>2.5449451319168811E-2</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="33">
         <f t="shared" si="0"/>
         <v>0.56292251690067618</v>
       </c>
-      <c r="X15" s="37">
+      <c r="X15" s="33">
         <f t="shared" si="1"/>
         <v>0.50058370301190758</v>
       </c>
-      <c r="Y15" s="38">
+      <c r="Y15" s="34">
         <f t="shared" si="2"/>
         <v>-6.2338813888768607E-2</v>
       </c>
@@ -6142,13 +7756,13 @@
       <c r="J16" s="13">
         <v>3.4342688330871493E-2</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="30">
         <v>2708</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="16">
         <v>0.54600760456273767</v>
       </c>
       <c r="O16" s="12">
@@ -6157,7 +7771,7 @@
       <c r="P16" s="12">
         <v>0.19543726235741449</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="17">
         <v>6.2357414448669199E-2</v>
       </c>
       <c r="R16" s="12">
@@ -6169,18 +7783,18 @@
       <c r="T16" s="12">
         <v>0.1063515509601182</v>
       </c>
-      <c r="U16" s="21">
+      <c r="U16" s="17">
         <v>3.4342688330871493E-2</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="33">
         <f t="shared" si="0"/>
         <v>0.39163498098859317</v>
       </c>
-      <c r="X16" s="37">
+      <c r="X16" s="33">
         <f t="shared" si="1"/>
         <v>0.29579025110782869</v>
       </c>
-      <c r="Y16" s="38">
+      <c r="Y16" s="34">
         <f t="shared" si="2"/>
         <v>-9.5844729880764479E-2</v>
       </c>
@@ -6216,45 +7830,45 @@
       <c r="J17" s="15">
         <v>0</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="31">
         <v>231</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="18">
         <v>0.78738317757009346</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="19">
         <v>0.17289719626168221</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="19">
         <v>3.9719626168224297E-2</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="20">
         <v>0</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="19">
         <v>0.5757575757575758</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="19">
         <v>0</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="19">
         <v>0.42424242424242431</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="20">
         <v>0</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="33">
         <f t="shared" si="0"/>
         <v>0.21261682242990651</v>
       </c>
-      <c r="X17" s="37">
+      <c r="X17" s="33">
         <f t="shared" si="1"/>
         <v>0.42424242424242431</v>
       </c>
-      <c r="Y17" s="38">
+      <c r="Y17" s="34">
         <f t="shared" si="2"/>
         <v>0.2116256018125178</v>
       </c>
@@ -6264,12 +7878,12 @@
       <c r="B21">
         <v>2013</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="36">
         <v>2021</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:25" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -6284,21 +7898,21 @@
       <c r="E22" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="12">
@@ -6310,7 +7924,7 @@
       <c r="D23" s="12">
         <v>0.23350582147477361</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="17">
         <v>5.297542043984476E-2</v>
       </c>
     </row>
@@ -6324,12 +7938,12 @@
       <c r="H24" s="12">
         <v>0.17765310892940631</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="17">
         <v>3.6988147292577621E-2</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="12">
@@ -6341,7 +7955,7 @@
       <c r="D25" s="12">
         <v>0.2386095767512226</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="17">
         <v>6.1675403722337541E-2</v>
       </c>
     </row>
@@ -6355,12 +7969,12 @@
       <c r="H26" s="12">
         <v>0.24032181732134411</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="17">
         <v>5.6822842719671869E-2</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="12">
@@ -6372,7 +7986,7 @@
       <c r="D27" s="12">
         <v>0.31112212857378951</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="17">
         <v>7.0831267559081146E-2</v>
       </c>
     </row>
@@ -6386,12 +8000,12 @@
       <c r="H28" s="12">
         <v>0.22354092358195771</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="17">
         <v>4.8609576717906632E-2</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="12">
@@ -6403,7 +8017,7 @@
       <c r="D29" s="12">
         <v>0.19365954514128189</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="17">
         <v>4.3289110957960029E-2</v>
       </c>
     </row>
@@ -6417,12 +8031,12 @@
       <c r="H30" s="12">
         <v>0.19825182729259291</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="17">
         <v>4.2574033607113253E-2</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="12">
@@ -6434,7 +8048,7 @@
       <c r="D31" s="12">
         <v>0.30317164179104478</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="17">
         <v>9.3283582089552244E-2</v>
       </c>
     </row>
@@ -6448,12 +8062,12 @@
       <c r="H32" s="12">
         <v>0.26588654680719159</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="17">
         <v>4.1150030998140109E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="12">
@@ -6465,11 +8079,11 @@
       <c r="D33" s="12">
         <v>0.22040142276422761</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="17">
         <v>5.0262533875338751E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F34" s="12">
         <v>0.51914292832821196</v>
       </c>
@@ -6479,12 +8093,12 @@
       <c r="H34" s="12">
         <v>0.2200813885889876</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="17">
         <v>4.3019682750602112E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="12">
@@ -6496,11 +8110,11 @@
       <c r="D35" s="12">
         <v>0.26869056327724938</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="17">
         <v>0.1211411850768105</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F36" s="12">
         <v>0.47406093233818669</v>
       </c>
@@ -6510,12 +8124,12 @@
       <c r="H36" s="12">
         <v>0.22384681267588399</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="17">
         <v>6.4419429829927807E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="12">
@@ -6527,11 +8141,11 @@
       <c r="D37" s="12">
         <v>0.24776425744025801</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="17">
         <v>6.6192640375311543E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F38" s="12">
         <v>0.49462029275616171</v>
       </c>
@@ -6541,12 +8155,12 @@
       <c r="H38" s="12">
         <v>0.21912923808332291</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="17">
         <v>6.2742399599649695E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="12">
@@ -6558,11 +8172,11 @@
       <c r="D39" s="12">
         <v>0.25462274176408078</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="17">
         <v>0.1104498760184201</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F40" s="12">
         <v>0.47046453832919138</v>
       </c>
@@ -6572,12 +8186,12 @@
       <c r="H40" s="12">
         <v>0.2131523609252533</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="17">
         <v>6.1810998534378388E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="12">
@@ -6589,11 +8203,14 @@
       <c r="D41" s="12">
         <v>0.14236934458882669</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="17">
         <v>3.1869486863321632E-2</v>
       </c>
+      <c r="U41" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F42" s="12">
         <v>0.53747534516765283</v>
       </c>
@@ -6603,12 +8220,12 @@
       <c r="H42" s="12">
         <v>0.18323471400394481</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="17">
         <v>2.3175542406311641E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="12">
@@ -6620,11 +8237,11 @@
       <c r="D43" s="12">
         <v>0.26946381616554249</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="17">
         <v>0.16359894821081511</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F44" s="12">
         <v>0.55081891044256015</v>
       </c>
@@ -6634,12 +8251,12 @@
       <c r="H44" s="12">
         <v>0.17214542920199791</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="17">
         <v>4.6230688814031827E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="12">
@@ -6651,11 +8268,11 @@
       <c r="D45" s="12">
         <v>0.14611872146118721</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="17">
         <v>6.4278187565858805E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F46" s="12">
         <v>0.58090101522842641</v>
       </c>
@@ -6665,12 +8282,12 @@
       <c r="H46" s="12">
         <v>0.17449238578680201</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="17">
         <v>6.0279187817258877E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="12">
@@ -6682,11 +8299,11 @@
       <c r="D47" s="12">
         <v>0.29433177327093091</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="17">
         <v>6.032241289651586E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F48" s="12">
         <v>0.47396684566892372</v>
       </c>
@@ -6696,12 +8313,12 @@
       <c r="H48" s="12">
         <v>0.24702311463927151</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="17">
         <v>2.5449451319168811E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="12">
@@ -6713,7 +8330,7 @@
       <c r="D49" s="12">
         <v>0.19543726235741449</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="17">
         <v>6.2357414448669199E-2</v>
       </c>
     </row>
@@ -6727,38 +8344,38 @@
       <c r="H50" s="12">
         <v>0.1063515509601182</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="17">
         <v>3.4342688330871493E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="19">
         <v>0.78738317757009346</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="19">
         <v>0.17289719626168221</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="19">
         <v>3.9719626168224297E-2</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="23">
+      <c r="F52" s="19">
         <v>0.5757575757575758</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="19">
         <v>0</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="19">
         <v>0.42424242424242431</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6780,4 +8397,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4B52F0-470B-D74F-B1F0-A8B70D4A9D65}">
+  <dimension ref="A1:AY2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6">
+        <v>62095</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2422.4737356677369</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.371573251856455</v>
+      </c>
+      <c r="E2" s="6">
+        <v>56110</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1838.4191578636251</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.9917662362777691</v>
+      </c>
+      <c r="H2" s="6">
+        <v>11890</v>
+      </c>
+      <c r="I2" s="7">
+        <v>883</v>
+      </c>
+      <c r="J2" s="8">
+        <v>4.5145341926116043</v>
+      </c>
+      <c r="K2" s="6">
+        <v>101193</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2479.6521933529311</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1.4896162299589191</v>
+      </c>
+      <c r="N2" s="6">
+        <v>56653</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1757</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1.885310762683315</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>126077</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3185.252580251683</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1.5358263259689751</v>
+      </c>
+      <c r="T2" s="6">
+        <v>230270</v>
+      </c>
+      <c r="U2" s="7">
+        <v>2661</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0.70249236953632987</v>
+      </c>
+      <c r="W2" s="6">
+        <v>54756</v>
+      </c>
+      <c r="X2" s="7">
+        <v>2071</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>2.299230340692425</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>16314</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>960</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>3.5772135965417289</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>254818</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>3424</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0.81684141880296901</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>24884</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>4036.645761024864</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>9.861308473810551</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>0.43945368480479441</v>
+      </c>
+      <c r="AJ2" s="13">
+        <v>0.49477273975935759</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>5985</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>3041.079413629313</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>30.88856298425204</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>0.24367047379163589</v>
+      </c>
+      <c r="AO2" s="13">
+        <v>0.24368372720922379</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>-1897</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>2715.895800652153</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>87.032181693127768</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>0.24602857515090981</v>
+      </c>
+      <c r="AT2" s="13">
+        <v>0.21488277908154049</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>-4424</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1304.3346963107281</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>17.922889466006481</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>7.0847266252659927E-2</v>
+      </c>
+      <c r="AY2" s="13">
+        <v>4.6660753949877953E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2 J2 M2 P2 S2 V2 Y2 AB2 AE2">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notebooks/output/phx_vil_rent.xlsx
+++ b/notebooks/output/phx_vil_rent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/notebooks/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD2583-2E04-7A49-BF13-D314C8C541CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DA58A-BC25-9B41-B99E-7E85032559E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25880" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="6540" windowWidth="26480" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Village_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>U.S. avg</t>
+  </si>
+  <si>
+    <t>Phx</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -637,6 +643,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,7 +656,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3603,13 +3624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY1" sqref="AU1:AY16"/>
+      <selection pane="bottomRight" activeCell="AF19" sqref="AF19:AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6110,19 +6131,27 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="AC19" s="39">
+      <c r="AC19" s="35">
         <f>AC2/SUM(AC2,T2,Q2)</f>
         <v>0.2601820795400096</v>
       </c>
-      <c r="AD19" s="39">
+      <c r="AD19" s="35">
         <f>Q2/SUM(Q2,T2,AC2)</f>
         <v>0.25347388596070913</v>
       </c>
-      <c r="AI19" s="39">
+      <c r="AE19" s="33">
+        <f>SUM(AC19:AD19)</f>
+        <v>0.51365596550071868</v>
+      </c>
+      <c r="AF19" t="b">
+        <f>AE19&gt;AE$35</f>
+        <v>1</v>
+      </c>
+      <c r="AI19" s="35">
         <f>H2/SUM(H2,K2,N2)</f>
         <v>0.40094078583287218</v>
       </c>
-      <c r="AJ19" s="39">
+      <c r="AJ19" s="35">
         <f>T2/SUM(T2,AC2,Q2)</f>
         <v>0.48634403449928126</v>
       </c>
@@ -6131,11 +6160,11 @@
         <v>8.5403248666409082E-2</v>
       </c>
       <c r="AM19" s="33">
-        <f>1-AI19</f>
+        <f t="shared" ref="AM19:AM33" si="0">1-AI19</f>
         <v>0.59905921416712782</v>
       </c>
       <c r="AN19" s="33">
-        <f>1-AJ19</f>
+        <f t="shared" ref="AN19:AN33" si="1">1-AJ19</f>
         <v>0.51365596550071868</v>
       </c>
     </row>
@@ -6143,32 +6172,40 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" s="39">
-        <f t="shared" ref="AC20:AC32" si="0">AC3/SUM(AC3,T3,Q3)</f>
+      <c r="AC20" s="35">
+        <f t="shared" ref="AC20:AC32" si="2">AC3/SUM(AC3,T3,Q3)</f>
         <v>0.27278451125452541</v>
       </c>
-      <c r="AD20" s="39">
-        <f t="shared" ref="AD20:AD32" si="1">Q3/SUM(Q3,T3,AC3)</f>
+      <c r="AD20" s="35">
+        <f t="shared" ref="AD20:AD32" si="3">Q3/SUM(Q3,T3,AC3)</f>
         <v>0.20706752715252635</v>
       </c>
-      <c r="AI20" s="39">
-        <f t="shared" ref="AI20:AI33" si="2">H3/SUM(H3,K3,N3)</f>
+      <c r="AE20" s="33">
+        <f t="shared" ref="AE20:AE33" si="4">SUM(AC20:AD20)</f>
+        <v>0.47985203840705176</v>
+      </c>
+      <c r="AF20" t="b">
+        <f t="shared" ref="AF20:AF33" si="5">AE20&gt;AE$35</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="35">
+        <f t="shared" ref="AI20:AI33" si="6">H3/SUM(H3,K3,N3)</f>
         <v>0.52838683535185271</v>
       </c>
-      <c r="AJ20" s="39">
-        <f t="shared" ref="AJ20:AJ33" si="3">T3/SUM(T3,AC3,Q3)</f>
+      <c r="AJ20" s="35">
+        <f t="shared" ref="AJ20:AJ33" si="7">T3/SUM(T3,AC3,Q3)</f>
         <v>0.52014796159294818</v>
       </c>
       <c r="AK20" s="33">
-        <f t="shared" ref="AK20:AK33" si="4">AJ20-AI20</f>
+        <f t="shared" ref="AK20:AK33" si="8">AJ20-AI20</f>
         <v>-8.2388737589045302E-3</v>
       </c>
       <c r="AM20" s="33">
-        <f>1-AI20</f>
+        <f t="shared" si="0"/>
         <v>0.47161316464814729</v>
       </c>
       <c r="AN20" s="33">
-        <f>1-AJ20</f>
+        <f t="shared" si="1"/>
         <v>0.47985203840705182</v>
       </c>
     </row>
@@ -6176,32 +6213,40 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="AC21" s="39">
+      <c r="AC21" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2752065293122325</v>
+      </c>
+      <c r="AD21" s="35">
+        <f>Q4/SUM(Q4,T4,AC4)</f>
+        <v>0.23496234365150459</v>
+      </c>
+      <c r="AE21" s="33">
+        <f t="shared" si="4"/>
+        <v>0.51016887296373703</v>
+      </c>
+      <c r="AF21" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI21" s="35">
+        <f t="shared" si="6"/>
+        <v>0.3826124075128059</v>
+      </c>
+      <c r="AJ21" s="35">
+        <f t="shared" si="7"/>
+        <v>0.48983112703626291</v>
+      </c>
+      <c r="AK21" s="33">
+        <f t="shared" si="8"/>
+        <v>0.10721871952345702</v>
+      </c>
+      <c r="AM21" s="33">
         <f t="shared" si="0"/>
-        <v>0.2752065293122325</v>
-      </c>
-      <c r="AD21" s="39">
+        <v>0.6173875924871941</v>
+      </c>
+      <c r="AN21" s="33">
         <f t="shared" si="1"/>
-        <v>0.23496234365150459</v>
-      </c>
-      <c r="AI21" s="39">
-        <f t="shared" si="2"/>
-        <v>0.3826124075128059</v>
-      </c>
-      <c r="AJ21" s="39">
-        <f t="shared" si="3"/>
-        <v>0.48983112703626291</v>
-      </c>
-      <c r="AK21" s="33">
-        <f t="shared" si="4"/>
-        <v>0.10721871952345702</v>
-      </c>
-      <c r="AM21" s="33">
-        <f>1-AI21</f>
-        <v>0.6173875924871941</v>
-      </c>
-      <c r="AN21" s="33">
-        <f>1-AJ21</f>
         <v>0.51016887296373703</v>
       </c>
     </row>
@@ -6209,32 +6254,40 @@
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="AC22" s="39">
+      <c r="AC22" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2658392988559577</v>
+      </c>
+      <c r="AD22" s="35">
+        <f t="shared" si="3"/>
+        <v>0.25480029437345286</v>
+      </c>
+      <c r="AE22" s="33">
+        <f t="shared" si="4"/>
+        <v>0.52063959322941056</v>
+      </c>
+      <c r="AF22" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI22" s="35">
+        <f t="shared" si="6"/>
+        <v>0.48121484814398202</v>
+      </c>
+      <c r="AJ22" s="35">
+        <f t="shared" si="7"/>
+        <v>0.47936040677058944</v>
+      </c>
+      <c r="AK22" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.8544413733925791E-3</v>
+      </c>
+      <c r="AM22" s="33">
         <f t="shared" si="0"/>
-        <v>0.2658392988559577</v>
-      </c>
-      <c r="AD22" s="39">
+        <v>0.51878515185601803</v>
+      </c>
+      <c r="AN22" s="33">
         <f t="shared" si="1"/>
-        <v>0.25480029437345286</v>
-      </c>
-      <c r="AI22" s="39">
-        <f t="shared" si="2"/>
-        <v>0.48121484814398202</v>
-      </c>
-      <c r="AJ22" s="39">
-        <f t="shared" si="3"/>
-        <v>0.47936040677058944</v>
-      </c>
-      <c r="AK22" s="33">
-        <f t="shared" si="4"/>
-        <v>-1.8544413733925791E-3</v>
-      </c>
-      <c r="AM22" s="33">
-        <f>1-AI22</f>
-        <v>0.51878515185601803</v>
-      </c>
-      <c r="AN22" s="33">
-        <f>1-AJ22</f>
         <v>0.52063959322941056</v>
       </c>
     </row>
@@ -6242,32 +6295,40 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="AC23" s="39">
+      <c r="AC23" s="35">
+        <f t="shared" si="2"/>
+        <v>0.22754491017964071</v>
+      </c>
+      <c r="AD23" s="35">
+        <f t="shared" si="3"/>
+        <v>0.22997483294281004</v>
+      </c>
+      <c r="AE23" s="33">
+        <f t="shared" si="4"/>
+        <v>0.45751974312245075</v>
+      </c>
+      <c r="AF23" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="35">
+        <f t="shared" si="6"/>
+        <v>0.53132105755940973</v>
+      </c>
+      <c r="AJ23" s="35">
+        <f t="shared" si="7"/>
+        <v>0.54248025687754919</v>
+      </c>
+      <c r="AK23" s="33">
+        <f t="shared" si="8"/>
+        <v>1.1159199318139468E-2</v>
+      </c>
+      <c r="AM23" s="33">
         <f t="shared" si="0"/>
-        <v>0.22754491017964071</v>
-      </c>
-      <c r="AD23" s="39">
+        <v>0.46867894244059027</v>
+      </c>
+      <c r="AN23" s="33">
         <f t="shared" si="1"/>
-        <v>0.22997483294281004</v>
-      </c>
-      <c r="AI23" s="39">
-        <f t="shared" si="2"/>
-        <v>0.53132105755940973</v>
-      </c>
-      <c r="AJ23" s="39">
-        <f t="shared" si="3"/>
-        <v>0.54248025687754919</v>
-      </c>
-      <c r="AK23" s="33">
-        <f t="shared" si="4"/>
-        <v>1.1159199318139468E-2</v>
-      </c>
-      <c r="AM23" s="33">
-        <f>1-AI23</f>
-        <v>0.46867894244059027</v>
-      </c>
-      <c r="AN23" s="33">
-        <f>1-AJ23</f>
         <v>0.45751974312245081</v>
       </c>
     </row>
@@ -6275,32 +6336,40 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="AC24" s="39">
+      <c r="AC24" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2384702663018087</v>
+      </c>
+      <c r="AD24" s="35">
+        <f t="shared" si="3"/>
+        <v>0.2337983047453781</v>
+      </c>
+      <c r="AE24" s="33">
+        <f t="shared" si="4"/>
+        <v>0.47226857104718678</v>
+      </c>
+      <c r="AF24" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="35">
+        <f t="shared" si="6"/>
+        <v>0.47680351675955729</v>
+      </c>
+      <c r="AJ24" s="35">
+        <f t="shared" si="7"/>
+        <v>0.52773142895281322</v>
+      </c>
+      <c r="AK24" s="33">
+        <f t="shared" si="8"/>
+        <v>5.0927912193255931E-2</v>
+      </c>
+      <c r="AM24" s="33">
         <f t="shared" si="0"/>
-        <v>0.2384702663018087</v>
-      </c>
-      <c r="AD24" s="39">
+        <v>0.52319648324044277</v>
+      </c>
+      <c r="AN24" s="33">
         <f t="shared" si="1"/>
-        <v>0.2337983047453781</v>
-      </c>
-      <c r="AI24" s="39">
-        <f t="shared" si="2"/>
-        <v>0.47680351675955729</v>
-      </c>
-      <c r="AJ24" s="39">
-        <f t="shared" si="3"/>
-        <v>0.52773142895281322</v>
-      </c>
-      <c r="AK24" s="33">
-        <f t="shared" si="4"/>
-        <v>5.0927912193255931E-2</v>
-      </c>
-      <c r="AM24" s="33">
-        <f>1-AI24</f>
-        <v>0.52319648324044277</v>
-      </c>
-      <c r="AN24" s="33">
-        <f>1-AJ24</f>
         <v>0.47226857104718678</v>
       </c>
     </row>
@@ -6308,32 +6377,40 @@
       <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="AC25" s="39">
+      <c r="AC25" s="35">
+        <f t="shared" si="2"/>
+        <v>0.25458335713061853</v>
+      </c>
+      <c r="AD25" s="35">
+        <f t="shared" si="3"/>
+        <v>0.18447655491461534</v>
+      </c>
+      <c r="AE25" s="33">
+        <f t="shared" si="4"/>
+        <v>0.43905991204523387</v>
+      </c>
+      <c r="AF25" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="35">
+        <f t="shared" si="6"/>
+        <v>0.5041663820777269</v>
+      </c>
+      <c r="AJ25" s="35">
+        <f t="shared" si="7"/>
+        <v>0.56094008795476613</v>
+      </c>
+      <c r="AK25" s="33">
+        <f t="shared" si="8"/>
+        <v>5.6773705877039227E-2</v>
+      </c>
+      <c r="AM25" s="33">
         <f t="shared" si="0"/>
-        <v>0.25458335713061853</v>
-      </c>
-      <c r="AD25" s="39">
+        <v>0.4958336179222731</v>
+      </c>
+      <c r="AN25" s="33">
         <f t="shared" si="1"/>
-        <v>0.18447655491461534</v>
-      </c>
-      <c r="AI25" s="39">
-        <f t="shared" si="2"/>
-        <v>0.5041663820777269</v>
-      </c>
-      <c r="AJ25" s="39">
-        <f t="shared" si="3"/>
-        <v>0.56094008795476613</v>
-      </c>
-      <c r="AK25" s="33">
-        <f t="shared" si="4"/>
-        <v>5.6773705877039227E-2</v>
-      </c>
-      <c r="AM25" s="33">
-        <f>1-AI25</f>
-        <v>0.4958336179222731</v>
-      </c>
-      <c r="AN25" s="33">
-        <f>1-AJ25</f>
         <v>0.43905991204523387</v>
       </c>
     </row>
@@ -6341,32 +6418,40 @@
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="AC26" s="39">
+      <c r="AC26" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2713441554031108</v>
+      </c>
+      <c r="AD26" s="35">
+        <f t="shared" si="3"/>
+        <v>0.2271955443863343</v>
+      </c>
+      <c r="AE26" s="33">
+        <f t="shared" si="4"/>
+        <v>0.49853969978944512</v>
+      </c>
+      <c r="AF26" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI26" s="35">
+        <f t="shared" si="6"/>
+        <v>0.43429436126154825</v>
+      </c>
+      <c r="AJ26" s="35">
+        <f t="shared" si="7"/>
+        <v>0.50146030021055488</v>
+      </c>
+      <c r="AK26" s="33">
+        <f t="shared" si="8"/>
+        <v>6.7165938949006632E-2</v>
+      </c>
+      <c r="AM26" s="33">
         <f t="shared" si="0"/>
-        <v>0.2713441554031108</v>
-      </c>
-      <c r="AD26" s="39">
+        <v>0.56570563873845181</v>
+      </c>
+      <c r="AN26" s="33">
         <f t="shared" si="1"/>
-        <v>0.2271955443863343</v>
-      </c>
-      <c r="AI26" s="39">
-        <f t="shared" si="2"/>
-        <v>0.43429436126154825</v>
-      </c>
-      <c r="AJ26" s="39">
-        <f t="shared" si="3"/>
-        <v>0.50146030021055488</v>
-      </c>
-      <c r="AK26" s="33">
-        <f t="shared" si="4"/>
-        <v>6.7165938949006632E-2</v>
-      </c>
-      <c r="AM26" s="33">
-        <f>1-AI26</f>
-        <v>0.56570563873845181</v>
-      </c>
-      <c r="AN26" s="33">
-        <f>1-AJ26</f>
         <v>0.49853969978944512</v>
       </c>
     </row>
@@ -6374,32 +6459,40 @@
       <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="AC27" s="39">
+      <c r="AC27" s="35">
+        <f t="shared" si="2"/>
+        <v>0.25515234785419866</v>
+      </c>
+      <c r="AD27" s="35">
+        <f t="shared" si="3"/>
+        <v>0.27729734098440151</v>
+      </c>
+      <c r="AE27" s="33">
+        <f t="shared" si="4"/>
+        <v>0.53244968883860011</v>
+      </c>
+      <c r="AF27" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI27" s="35">
+        <f t="shared" si="6"/>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="AJ27" s="35">
+        <f t="shared" si="7"/>
+        <v>0.46755031116139983</v>
+      </c>
+      <c r="AK27" s="33">
+        <f t="shared" si="8"/>
+        <v>8.1186674797763481E-2</v>
+      </c>
+      <c r="AM27" s="33">
         <f t="shared" si="0"/>
-        <v>0.25515234785419866</v>
-      </c>
-      <c r="AD27" s="39">
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="AN27" s="33">
         <f t="shared" si="1"/>
-        <v>0.27729734098440151</v>
-      </c>
-      <c r="AI27" s="39">
-        <f t="shared" si="2"/>
-        <v>0.38636363636363635</v>
-      </c>
-      <c r="AJ27" s="39">
-        <f t="shared" si="3"/>
-        <v>0.46755031116139983</v>
-      </c>
-      <c r="AK27" s="33">
-        <f t="shared" si="4"/>
-        <v>8.1186674797763481E-2</v>
-      </c>
-      <c r="AM27" s="33">
-        <f>1-AI27</f>
-        <v>0.61363636363636365</v>
-      </c>
-      <c r="AN27" s="33">
-        <f>1-AJ27</f>
         <v>0.53244968883860011</v>
       </c>
     </row>
@@ -6407,32 +6500,40 @@
       <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="AC28" s="39">
+      <c r="AC28" s="35">
+        <f t="shared" si="2"/>
+        <v>0.26219081272084804</v>
+      </c>
+      <c r="AD28" s="35">
+        <f t="shared" si="3"/>
+        <v>0.18758202927814235</v>
+      </c>
+      <c r="AE28" s="33">
+        <f t="shared" si="4"/>
+        <v>0.44977284199899037</v>
+      </c>
+      <c r="AF28" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="35">
+        <f t="shared" si="6"/>
+        <v>0.6371117860291956</v>
+      </c>
+      <c r="AJ28" s="35">
+        <f t="shared" si="7"/>
+        <v>0.55022715800100963</v>
+      </c>
+      <c r="AK28" s="33">
+        <f t="shared" si="8"/>
+        <v>-8.6884628028185973E-2</v>
+      </c>
+      <c r="AM28" s="33">
         <f t="shared" si="0"/>
-        <v>0.26219081272084804</v>
-      </c>
-      <c r="AD28" s="39">
+        <v>0.3628882139708044</v>
+      </c>
+      <c r="AN28" s="33">
         <f t="shared" si="1"/>
-        <v>0.18758202927814235</v>
-      </c>
-      <c r="AI28" s="39">
-        <f t="shared" si="2"/>
-        <v>0.6371117860291956</v>
-      </c>
-      <c r="AJ28" s="39">
-        <f t="shared" si="3"/>
-        <v>0.55022715800100963</v>
-      </c>
-      <c r="AK28" s="33">
-        <f t="shared" si="4"/>
-        <v>-8.6884628028185973E-2</v>
-      </c>
-      <c r="AM28" s="33">
-        <f>1-AI28</f>
-        <v>0.3628882139708044</v>
-      </c>
-      <c r="AN28" s="33">
-        <f>1-AJ28</f>
         <v>0.44977284199899037</v>
       </c>
     </row>
@@ -6440,32 +6541,40 @@
       <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="AC29" s="39">
+      <c r="AC29" s="35">
+        <f t="shared" si="2"/>
+        <v>0.25403779506963969</v>
+      </c>
+      <c r="AD29" s="35">
+        <f t="shared" si="3"/>
+        <v>0.23925979206172759</v>
+      </c>
+      <c r="AE29" s="33">
+        <f t="shared" si="4"/>
+        <v>0.49329758713136729</v>
+      </c>
+      <c r="AF29" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="35">
+        <f t="shared" si="6"/>
+        <v>0.44381554852671884</v>
+      </c>
+      <c r="AJ29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.50670241286863271</v>
+      </c>
+      <c r="AK29" s="33">
+        <f t="shared" si="8"/>
+        <v>6.2886864341913873E-2</v>
+      </c>
+      <c r="AM29" s="33">
         <f t="shared" si="0"/>
-        <v>0.25403779506963969</v>
-      </c>
-      <c r="AD29" s="39">
+        <v>0.55618445147328122</v>
+      </c>
+      <c r="AN29" s="33">
         <f t="shared" si="1"/>
-        <v>0.23925979206172759</v>
-      </c>
-      <c r="AI29" s="39">
-        <f t="shared" si="2"/>
-        <v>0.44381554852671884</v>
-      </c>
-      <c r="AJ29" s="39">
-        <f t="shared" si="3"/>
-        <v>0.50670241286863271</v>
-      </c>
-      <c r="AK29" s="33">
-        <f t="shared" si="4"/>
-        <v>6.2886864341913873E-2</v>
-      </c>
-      <c r="AM29" s="33">
-        <f>1-AI29</f>
-        <v>0.55618445147328122</v>
-      </c>
-      <c r="AN29" s="33">
-        <f>1-AJ29</f>
         <v>0.49329758713136729</v>
       </c>
     </row>
@@ -6473,32 +6582,40 @@
       <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="AC30" s="39">
+      <c r="AC30" s="35">
+        <f t="shared" si="2"/>
+        <v>0.24199244915357448</v>
+      </c>
+      <c r="AD30" s="35">
+        <f t="shared" si="3"/>
+        <v>0.18048958713920352</v>
+      </c>
+      <c r="AE30" s="33">
+        <f t="shared" si="4"/>
+        <v>0.42248203629277803</v>
+      </c>
+      <c r="AF30" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="35">
+        <f t="shared" si="6"/>
+        <v>0.36180973209404044</v>
+      </c>
+      <c r="AJ30" s="35">
+        <f t="shared" si="7"/>
+        <v>0.57751796370722197</v>
+      </c>
+      <c r="AK30" s="33">
+        <f t="shared" si="8"/>
+        <v>0.21570823161318153</v>
+      </c>
+      <c r="AM30" s="33">
         <f t="shared" si="0"/>
-        <v>0.24199244915357448</v>
-      </c>
-      <c r="AD30" s="39">
+        <v>0.63819026790595956</v>
+      </c>
+      <c r="AN30" s="33">
         <f t="shared" si="1"/>
-        <v>0.18048958713920352</v>
-      </c>
-      <c r="AI30" s="39">
-        <f t="shared" si="2"/>
-        <v>0.36180973209404044</v>
-      </c>
-      <c r="AJ30" s="39">
-        <f t="shared" si="3"/>
-        <v>0.57751796370722197</v>
-      </c>
-      <c r="AK30" s="33">
-        <f t="shared" si="4"/>
-        <v>0.21570823161318153</v>
-      </c>
-      <c r="AM30" s="33">
-        <f>1-AI30</f>
-        <v>0.63819026790595956</v>
-      </c>
-      <c r="AN30" s="33">
-        <f>1-AJ30</f>
         <v>0.42248203629277803</v>
       </c>
     </row>
@@ -6506,32 +6623,40 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="AC31" s="39">
+      <c r="AC31" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1961512491559757</v>
+      </c>
+      <c r="AD31" s="35">
+        <f t="shared" si="3"/>
+        <v>0.18568534773801484</v>
+      </c>
+      <c r="AE31" s="33">
+        <f t="shared" si="4"/>
+        <v>0.38183659689399052</v>
+      </c>
+      <c r="AF31" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="35">
+        <f t="shared" si="6"/>
+        <v>0.60172672672672678</v>
+      </c>
+      <c r="AJ31" s="35">
+        <f t="shared" si="7"/>
+        <v>0.61816340310600948</v>
+      </c>
+      <c r="AK31" s="33">
+        <f t="shared" si="8"/>
+        <v>1.64366763792827E-2</v>
+      </c>
+      <c r="AM31" s="33">
         <f t="shared" si="0"/>
-        <v>0.1961512491559757</v>
-      </c>
-      <c r="AD31" s="39">
+        <v>0.39827327327327322</v>
+      </c>
+      <c r="AN31" s="33">
         <f t="shared" si="1"/>
-        <v>0.18568534773801484</v>
-      </c>
-      <c r="AI31" s="39">
-        <f t="shared" si="2"/>
-        <v>0.60172672672672678</v>
-      </c>
-      <c r="AJ31" s="39">
-        <f t="shared" si="3"/>
-        <v>0.61816340310600948</v>
-      </c>
-      <c r="AK31" s="33">
-        <f t="shared" si="4"/>
-        <v>1.64366763792827E-2</v>
-      </c>
-      <c r="AM31" s="33">
-        <f>1-AI31</f>
-        <v>0.39827327327327322</v>
-      </c>
-      <c r="AN31" s="33">
-        <f>1-AJ31</f>
         <v>0.38183659689399052</v>
       </c>
     </row>
@@ -6539,32 +6664,40 @@
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="AC32" s="39">
+      <c r="AC32" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="35">
+        <f t="shared" si="3"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="AE32" s="33">
+        <f t="shared" si="4"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="AF32" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="35">
+        <f t="shared" si="6"/>
+        <v>0.78738317757009346</v>
+      </c>
+      <c r="AJ32" s="35">
+        <f t="shared" si="7"/>
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="AK32" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.21162560181251766</v>
+      </c>
+      <c r="AM32" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="39">
+        <v>0.21261682242990654</v>
+      </c>
+      <c r="AN32" s="33">
         <f t="shared" si="1"/>
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="AI32" s="39">
-        <f t="shared" si="2"/>
-        <v>0.78738317757009346</v>
-      </c>
-      <c r="AJ32" s="39">
-        <f t="shared" si="3"/>
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="AK32" s="33">
-        <f t="shared" si="4"/>
-        <v>-0.21162560181251766</v>
-      </c>
-      <c r="AM32" s="33">
-        <f>1-AI32</f>
-        <v>0.21261682242990654</v>
-      </c>
-      <c r="AN32" s="33">
-        <f>1-AJ32</f>
         <v>0.4242424242424242</v>
       </c>
     </row>
@@ -6572,33 +6705,57 @@
       <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="AC33" s="39">
+      <c r="AC33" s="35">
         <f>AC16/SUM(AC16,T16,Q16)</f>
         <v>0.19617590822179731</v>
       </c>
-      <c r="AD33" s="39">
+      <c r="AD33" s="35">
         <f>Q16/SUM(Q16,T16,AC16)</f>
         <v>0.1101338432122371</v>
       </c>
-      <c r="AI33" s="39">
-        <f t="shared" si="2"/>
+      <c r="AE33" s="33">
+        <f t="shared" si="4"/>
+        <v>0.30630975143403438</v>
+      </c>
+      <c r="AF33" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="35">
+        <f t="shared" si="6"/>
         <v>0.58231954582319545</v>
       </c>
-      <c r="AJ33" s="39">
-        <f t="shared" si="3"/>
+      <c r="AJ33" s="35">
+        <f t="shared" si="7"/>
         <v>0.69369024856596562</v>
       </c>
       <c r="AK33" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11137070274277017</v>
       </c>
       <c r="AM33" s="33">
-        <f>1-AI33</f>
+        <f t="shared" si="0"/>
         <v>0.41768045417680455</v>
       </c>
       <c r="AN33" s="33">
-        <f>1-AJ33</f>
+        <f t="shared" si="1"/>
         <v>0.30630975143403438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AD35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE35" s="33">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AD36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE36" s="33">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -6642,7 +6799,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6661,36 +6818,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="39"/>
       <c r="L1" s="21"/>
       <c r="M1" s="24"/>
-      <c r="N1" s="35">
+      <c r="N1" s="36">
         <v>2013</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="36">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="37">
         <v>2021</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="38"/>
       <c r="W1" s="32" t="s">
         <v>72</v>
       </c>
@@ -7878,12 +8035,12 @@
       <c r="B21">
         <v>2013</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="37">
         <v>2021</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:25" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -8404,163 +8561,163 @@
   <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:51" s="32" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="X1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="Y1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="Z1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AD1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="AE1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8569,94 +8726,94 @@
         <v>76</v>
       </c>
       <c r="B2" s="6">
+        <v>230270</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2661</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.70249236953632987</v>
+      </c>
+      <c r="E2" s="6">
+        <v>101193</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2479.6521933529311</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.4896162299589191</v>
+      </c>
+      <c r="H2" s="6">
+        <v>56110</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1838.4191578636251</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1.9917662362777691</v>
+      </c>
+      <c r="K2" s="6">
+        <v>56653</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1757</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1.885310762683315</v>
+      </c>
+      <c r="N2" s="6">
+        <v>16314</v>
+      </c>
+      <c r="O2" s="7">
+        <v>960</v>
+      </c>
+      <c r="P2" s="8">
+        <v>3.5772135965417289</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>254818</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3424</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0.81684141880296901</v>
+      </c>
+      <c r="T2" s="6">
+        <v>126077</v>
+      </c>
+      <c r="U2" s="7">
+        <v>3185.252580251683</v>
+      </c>
+      <c r="V2" s="8">
+        <v>1.5358263259689751</v>
+      </c>
+      <c r="W2" s="6">
         <v>62095</v>
       </c>
-      <c r="C2" s="7">
+      <c r="X2" s="7">
         <v>2422.4737356677369</v>
       </c>
-      <c r="D2" s="8">
+      <c r="Y2" s="8">
         <v>2.371573251856455</v>
       </c>
-      <c r="E2" s="6">
-        <v>56110</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1838.4191578636251</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1.9917662362777691</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="Z2" s="6">
+        <v>54756</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>2071</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>2.299230340692425</v>
+      </c>
+      <c r="AC2" s="6">
         <v>11890</v>
       </c>
-      <c r="I2" s="7">
+      <c r="AD2" s="7">
         <v>883</v>
       </c>
-      <c r="J2" s="8">
+      <c r="AE2" s="8">
         <v>4.5145341926116043</v>
-      </c>
-      <c r="K2" s="6">
-        <v>101193</v>
-      </c>
-      <c r="L2" s="7">
-        <v>2479.6521933529311</v>
-      </c>
-      <c r="M2" s="8">
-        <v>1.4896162299589191</v>
-      </c>
-      <c r="N2" s="6">
-        <v>56653</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1757</v>
-      </c>
-      <c r="P2" s="8">
-        <v>1.885310762683315</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>126077</v>
-      </c>
-      <c r="R2" s="7">
-        <v>3185.252580251683</v>
-      </c>
-      <c r="S2" s="8">
-        <v>1.5358263259689751</v>
-      </c>
-      <c r="T2" s="6">
-        <v>230270</v>
-      </c>
-      <c r="U2" s="7">
-        <v>2661</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0.70249236953632987</v>
-      </c>
-      <c r="W2" s="6">
-        <v>54756</v>
-      </c>
-      <c r="X2" s="7">
-        <v>2071</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>2.299230340692425</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>16314</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>960</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>3.5772135965417289</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>254818</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>3424</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>0.81684141880296901</v>
       </c>
       <c r="AF2" s="6">
         <v>24884</v>
@@ -8720,17 +8877,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2 J2 M2 P2 S2 V2 Y2 AB2 AE2">
+  <conditionalFormatting sqref="D2 G2 J2 M2 P2 S2 V2 Y2 AB2 AE2">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
